--- a/src/test/java/com/bridgelabz/linkedin/repository/linkedin.xlsx
+++ b/src/test/java/com/bridgelabz/linkedin/repository/linkedin.xlsx
@@ -235,7 +235,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
@@ -264,7 +264,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="akag006@gmail.com"/>
